--- a/doc/cp资料/MAIN SOURCE.xlsx
+++ b/doc/cp资料/MAIN SOURCE.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370"/>
+    <workbookView windowWidth="20400" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="source" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>Data Sources for Encoder A</t>
   </si>
@@ -247,6 +247,159 @@
   </si>
   <si>
     <t>http://www.lecai.com/lottery/gd11x5/</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>June.30</t>
+  </si>
+  <si>
+    <t>服务器架构</t>
+  </si>
+  <si>
+    <t>老妹、天使</t>
+  </si>
+  <si>
+    <t>分分彩、三分彩、重庆时时彩上线</t>
+  </si>
+  <si>
+    <t>老妹</t>
+  </si>
+  <si>
+    <t>十个域名</t>
+  </si>
+  <si>
+    <t>懿哥</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网站页面</t>
+    </r>
+  </si>
+  <si>
+    <t>美工</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>返点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1960</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+  </si>
+  <si>
+    <t>取消合买</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>分红制度</t>
+  </si>
+  <si>
+    <t>中奖范例</t>
+  </si>
+  <si>
+    <t>投注页面球体修改（间距 大小）</t>
+  </si>
+  <si>
+    <t>彩种按受欢迎程度排序</t>
+  </si>
+  <si>
+    <t>存提页面修改</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取消签到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>积分系统</t>
+    </r>
+  </si>
+  <si>
+    <t>游戏记录取消合买</t>
+  </si>
+  <si>
+    <t>推广链接逻辑</t>
+  </si>
+  <si>
+    <t>浏览器兼容性测试</t>
+  </si>
+  <si>
+    <t>团队管理修改</t>
+  </si>
+  <si>
+    <t>报表管理修改</t>
+  </si>
+  <si>
+    <t>帮助中心</t>
+  </si>
+  <si>
+    <t>账户中心修改</t>
   </si>
 </sst>
 </file>
@@ -256,10 +409,10 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -275,6 +428,18 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -305,6 +470,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Segoe UI Symbol"/>
@@ -322,13 +494,26 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -480,136 +665,147 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
@@ -617,6 +813,7 @@
     <cellStyle name="百分比" xfId="4" builtinId="5"/>
     <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
     <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -922,11 +1119,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -952,8 +1149,8 @@
   <sheetPr/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -967,798 +1164,798 @@
   </cols>
   <sheetData>
     <row r="1" ht="40.5" customHeight="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" ht="41.25" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="13" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="14" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="1:7">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="22" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="13" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="17"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="13" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="17"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="13" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" ht="17.25" spans="1:7">
-      <c r="A11" s="17"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="27"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" ht="15.75" spans="1:7">
-      <c r="A12" s="19"/>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="29" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="13" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="17"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="13" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="17"/>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="14" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="13" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="17"/>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="13" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="24"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" ht="17.25" spans="1:7">
-      <c r="A18" s="19"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="13" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="24"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="13" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="24"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" ht="17.25" spans="1:7">
-      <c r="A20" s="17"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="13" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="17"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:7">
-      <c r="A22" s="17"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="13" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" ht="17.25" spans="1:7">
-      <c r="A23" s="19"/>
-      <c r="B23" s="33" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="13" t="s">
+      <c r="C23" s="39"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" ht="16.5" spans="1:7">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="24"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" ht="16.5" spans="1:7">
-      <c r="A25" s="17"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="13" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="24"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" ht="16.5" spans="1:7">
-      <c r="A26" s="17"/>
-      <c r="B26" s="32" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="13" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="24"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" ht="16.5" spans="1:7">
-      <c r="A27" s="17"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="13" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="24"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" ht="17.25" spans="1:7">
-      <c r="A28" s="19"/>
-      <c r="B28" s="33" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="13" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" ht="17.25" spans="1:7">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="26" t="s">
+      <c r="D29" s="11"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="27"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="17"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="29" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="19" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="17"/>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="13" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="19" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="17"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="32" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="13" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:7">
-      <c r="A33" s="19"/>
-      <c r="B33" s="33" t="s">
+      <c r="A33" s="25"/>
+      <c r="B33" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="14" t="s">
+      <c r="C33" s="39"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:7">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="13" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="24"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" ht="16.5" spans="1:7">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="13" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G35" s="24"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" ht="16.5" spans="1:7">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="13" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="24"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" ht="16.5" spans="1:7">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="13" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="24"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" ht="17.25" spans="1:7">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="26" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="27"/>
+      <c r="G38" s="33"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="29" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="13" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="19" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="13" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="14" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="1:7">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="13" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="30"/>
     </row>
     <row r="44" ht="16.5" spans="1:7">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="13" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="24"/>
+      <c r="G44" s="30"/>
     </row>
     <row r="45" ht="16.5" spans="1:7">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="13" t="s">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="24"/>
+      <c r="G45" s="30"/>
     </row>
     <row r="46" ht="16.5" spans="1:7">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="13" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="24"/>
+      <c r="G46" s="30"/>
     </row>
     <row r="47" ht="17.25" spans="1:7">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G47" s="27"/>
+      <c r="G47" s="33"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="29" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="13" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="19" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="13" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="1:7">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="24"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="30"/>
     </row>
     <row r="52" ht="16.5" spans="1:7">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="13" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="24"/>
+      <c r="G52" s="30"/>
     </row>
     <row r="53" ht="16.5" spans="1:7">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="13" t="s">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G53" s="24"/>
+      <c r="G53" s="30"/>
     </row>
     <row r="54" ht="16.5" spans="1:7">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="13" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G54" s="24"/>
+      <c r="G54" s="30"/>
     </row>
     <row r="55" ht="16.5" spans="1:7">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="13" t="s">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G55" s="24"/>
+      <c r="G55" s="30"/>
     </row>
     <row r="56" ht="17.25" spans="1:7">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="26" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="27"/>
+      <c r="G56" s="33"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="36"/>
+      <c r="A57" s="42"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="36"/>
+      <c r="A58" s="42"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="36"/>
+      <c r="A59" s="42"/>
     </row>
     <row r="60" ht="16.5" spans="1:1">
-      <c r="A60" s="37"/>
+      <c r="A60" s="43"/>
     </row>
     <row r="61" ht="16.5" spans="1:1">
-      <c r="A61" s="37"/>
+      <c r="A61" s="43"/>
     </row>
     <row r="62" ht="16.5" spans="1:1">
-      <c r="A62" s="37"/>
+      <c r="A62" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1897,13 +2094,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B2823"/>
+  <dimension ref="A1:C2823"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.4285714285714" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -2035,17 +2232,138 @@
     <col min="16130" max="16130" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
+    <row r="1" s="1" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="12.75" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="7" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="2823" spans="2:2">
       <c r="B2823" s="2"/>
